--- a/data/trans_bre/P1801_2016_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1801_2016_2023-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>11.99220071683088</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>5.356643149648955</v>
+        <v>5.356643149648943</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.2434248729600748</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.1057381247322699</v>
+        <v>0.1057381247322697</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.548181045233561</v>
+        <v>6.395353064325214</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5232902208506858</v>
+        <v>0.2699672305821435</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.1217070207168087</v>
+        <v>0.1235448593432283</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.009794968301101364</v>
+        <v>0.004677499583861081</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.41542237634609</v>
+        <v>16.94383180767656</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.25169329158355</v>
+        <v>10.77738791532562</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.3659987267105978</v>
+        <v>0.3619132301090964</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.2174373398921453</v>
+        <v>0.2299023451171462</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.351157067254476</v>
+        <v>7.274350267681181</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.335134814328147</v>
+        <v>4.928443932266674</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.157507580387524</v>
+        <v>0.1481742589447878</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.102730735150987</v>
+        <v>0.09456693432367973</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.94165426714065</v>
+        <v>16.35435375797715</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.04960566851121</v>
+        <v>13.33997874686401</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3785813527401675</v>
+        <v>0.3845874909663095</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.303215956491423</v>
+        <v>0.290192076957923</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>13.42737982978657</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>8.853699851498014</v>
+        <v>8.853699851498027</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.2897267593946061</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.2201509475227973</v>
+        <v>0.2201509475227975</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.455620093425392</v>
+        <v>8.333285978169855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.607071781488887</v>
+        <v>3.566101028247701</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.1718376874477192</v>
+        <v>0.1711465630748495</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.07871194914708372</v>
+        <v>0.08047187863138645</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.68473878389257</v>
+        <v>18.56276663591165</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.09069165880147</v>
+        <v>13.94000509355697</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.4291586015629457</v>
+        <v>0.4349371741013044</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.3710620434692609</v>
+        <v>0.3765435990319985</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.637622288247424</v>
+        <v>2.147019156968539</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.764689440521514</v>
+        <v>2.935846902108736</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.03348839789476051</v>
+        <v>0.04454096963018191</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.05070857585239859</v>
+        <v>0.05351591127846383</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.65404326252833</v>
+        <v>11.11283691728337</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.70109738152573</v>
+        <v>11.61825675158367</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2436733620662794</v>
+        <v>0.2450701590223793</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2412879457890839</v>
+        <v>0.2350227562260726</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.046371779820905</v>
+        <v>8.121565677115958</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.766542746174163</v>
+        <v>5.733761158631114</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.1687656528516653</v>
+        <v>0.1703350372045145</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.1157287675067365</v>
+        <v>0.1170498414588942</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.85538048195863</v>
+        <v>13.06231911677585</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.55165336813788</v>
+        <v>10.49943486546054</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.2850514896338703</v>
+        <v>0.2887822451877114</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.2258285023514287</v>
+        <v>0.2270261140538612</v>
       </c>
     </row>
     <row r="19">
